--- a/medicine/Sexualité et sexologie/Sunstone/Sunstone.xlsx
+++ b/medicine/Sexualité et sexologie/Sunstone/Sunstone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sunstone est une série de comics créée par l'auteur croate Stjepan Šejić en 2011 sur son compte DeviantArt[2], puis publiée aux États-Unis par l'éditeur Image Comics et en France dans la collection Panini Comics.
+Sunstone est une série de comics créée par l'auteur croate Stjepan Šejić en 2011 sur son compte DeviantArt, puis publiée aux États-Unis par l'éditeur Image Comics et en France dans la collection Panini Comics.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lisa Williams, serveuse dans un café et écrivaine amateure de nouvelles érotiques BDSM, raconte l'histoire de sa rencontre et relation avec Allison « Ally » Carter, une informaticienne. Cette relation d'abord amicale, puis romantique, a pu voir le jour grâce à un intérêt commun aux deux femmes, le BDSM.
 "Sunstone" est le safeword utilisé par Ally dans ses séances de BDSM.
@@ -544,9 +558,11 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stjepan Šejić imagine Sunstone comme une série de 20 volumes, constitués de trois principaux arcs narratifs, et un volume final[3]. À la fin du premier tome, l'auteur hésitait à publier une telle romance, et a envisagé d'en faire un space opera, en intégrant des monstres et vaisseaux spatiaux.[réf. nécessaire]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stjepan Šejić imagine Sunstone comme une série de 20 volumes, constitués de trois principaux arcs narratifs, et un volume final. À la fin du premier tome, l'auteur hésitait à publier une telle romance, et a envisagé d'en faire un space opera, en intégrant des monstres et vaisseaux spatiaux.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -577,17 +593,59 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Version originale
-Sunstone TPB Vol. 1 (décembre 2014)
+          <t>Version originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sunstone TPB Vol. 1 (décembre 2014)
 Sunstone TPB Vol. 2 (mai 2015)
 Sunstone TPB Vol. 3 (septembre 2015)
 Sunstone TPB Vol. 4 (février 2016)
 Sunstone TPB Vol. 5 (septembre 2016)
 Sunstone TPB Vol. 6 (mars 2019)
-Sunstone TPB Vol. 7 (mai 2021)
-Version française
-Panini Comics
-1 Tome 1, 26 août 2015Scénario et dessin : Stjepan Šejić
+Sunstone TPB Vol. 7 (mai 2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sunstone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sunstone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Version française</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Panini Comics</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1 Tome 1, 26 août 2015Scénario et dessin : Stjepan Šejić
 2 Tome 2, 9 mars 2016Scénario et dessin : Stjepan Šejić
 3 Tome 3, 8 septembre 2016Scénario et dessin : Stjepan Šejić
 4 Tome 4, 15 février 2017Scénario et dessin : Stjepan Šejić
